--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CA8481-C31C-4BBF-8470-B8F26354B33F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE0808-1E5C-468A-8D51-77FE468E5FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4290" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -8121,7 +8121,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8150,7 +8150,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>412</v>
       </c>
       <c r="C2" t="s">
@@ -8161,7 +8161,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>418</v>
       </c>
       <c r="D3" t="s">
@@ -8177,6 +8177,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7DF81C52-DA9A-4381-9FFE-BA1ADCAF4CC2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5BB9124B-E55F-40A5-BF24-C07E619F58AB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FD05A-83DC-413A-ABC4-A00F44CDC49C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE7138-3C89-4D20-B912-186D814D990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-4335" windowWidth="18330" windowHeight="28530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4290" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="面经https   leetcode.com discuss " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="592">
   <si>
     <t>Difficulty</t>
   </si>
@@ -1482,9 +1481,6 @@
     <t>Matrix Rotation, Math</t>
   </si>
   <si>
-    <t xml:space="preserve">Graph, BFS Group Traversal, Multi-Source, </t>
-  </si>
-  <si>
     <t>Array, Sliding Window, Recursion</t>
   </si>
   <si>
@@ -1548,9 +1544,6 @@
     <t>Graph, BFS Group Traversal, Modulo</t>
   </si>
   <si>
-    <t>Math, DP, Bit  Operation</t>
-  </si>
-  <si>
     <t>Graph, Topological Sort</t>
   </si>
   <si>
@@ -1632,9 +1625,6 @@
     <t>Count Square Submatrices with All Ones</t>
   </si>
   <si>
-    <t>google</t>
-  </si>
-  <si>
     <t>My Calendar II</t>
   </si>
   <si>
@@ -1783,6 +1773,36 @@
   </si>
   <si>
     <t>Minimum Cost For Tickets</t>
+  </si>
+  <si>
+    <t>Jumping Pointers/Mono Stack</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Matrix Rotation</t>
+  </si>
+  <si>
+    <t>BFS Group Traversal</t>
+  </si>
+  <si>
+    <t>Multi-Source</t>
+  </si>
+  <si>
+    <t>Running Pointers</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Math, DP, Bit Manipulation</t>
   </si>
 </sst>
 </file>
@@ -2273,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
-  <dimension ref="A1:H442"/>
+  <dimension ref="A1:AD442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358:XFD358"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,12 +2305,23 @@
     <col min="2" max="2" width="76" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>392</v>
       </c>
@@ -2312,8 +2343,77 @@
       <c r="G1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N1" t="s">
+        <v>582</v>
+      </c>
+      <c r="O1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" t="s">
+        <v>584</v>
+      </c>
+      <c r="S1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T1" t="s">
+        <v>585</v>
+      </c>
+      <c r="U1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V1" t="s">
+        <v>586</v>
+      </c>
+      <c r="W1" t="s">
+        <v>587</v>
+      </c>
+      <c r="X1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>54</v>
       </c>
@@ -2335,8 +2435,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>33</v>
       </c>
@@ -2358,8 +2461,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1428</v>
       </c>
@@ -2381,8 +2487,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>528</v>
       </c>
@@ -2404,8 +2513,17 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>767</v>
       </c>
@@ -2427,8 +2545,17 @@
       <c r="G6" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>48</v>
       </c>
@@ -2450,8 +2577,14 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>994</v>
       </c>
@@ -2465,7 +2598,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2473,8 +2606,17 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>621</v>
       </c>
@@ -2496,8 +2638,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1283</v>
       </c>
@@ -2511,7 +2656,7 @@
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2519,8 +2664,14 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>445</v>
       </c>
@@ -2534,7 +2685,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2543,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>721</v>
       </c>
@@ -2566,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>211</v>
       </c>
@@ -2580,7 +2731,7 @@
         <v>139</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2589,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>986</v>
       </c>
@@ -2603,7 +2754,7 @@
         <v>142</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2612,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>209</v>
       </c>
@@ -2635,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>341</v>
       </c>
@@ -2649,7 +2800,7 @@
         <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2658,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>210</v>
       </c>
@@ -2672,7 +2823,7 @@
         <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2680,8 +2831,14 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>50</v>
       </c>
@@ -2695,7 +2852,7 @@
         <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2703,8 +2860,17 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>148</v>
       </c>
@@ -2718,7 +2884,7 @@
         <v>174</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F19" s="20">
         <v>1</v>
@@ -2726,8 +2892,20 @@
       <c r="G19" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>426</v>
       </c>
@@ -2741,7 +2919,7 @@
         <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2749,8 +2927,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>94</v>
       </c>
@@ -2764,7 +2945,7 @@
         <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2772,8 +2953,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>285</v>
       </c>
@@ -2787,7 +2971,7 @@
         <v>358</v>
       </c>
       <c r="E22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2795,13 +2979,16 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>853</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>6</v>
@@ -2818,16 +3005,13 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>837</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>6</v>
@@ -2844,11 +3028,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>454</v>
       </c>
@@ -2871,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>787</v>
       </c>
@@ -2894,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>516</v>
       </c>
@@ -2916,14 +3100,16 @@
       <c r="G27" s="20">
         <v>1</v>
       </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>652</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>6</v>
@@ -2932,7 +3118,7 @@
         <v>396</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2940,11 +3126,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>420</v>
       </c>
@@ -2964,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>239</v>
       </c>
@@ -2978,7 +3164,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2986,8 +3172,14 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>301</v>
       </c>
@@ -3001,7 +3193,7 @@
         <v>97</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3010,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>843</v>
       </c>
@@ -3024,7 +3216,7 @@
         <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3032,11 +3224,14 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>465</v>
       </c>
@@ -3050,7 +3245,7 @@
         <v>222</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3058,16 +3253,16 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AD33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>1499</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>4</v>
@@ -3076,7 +3271,7 @@
         <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3084,16 +3279,19 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>715</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>4</v>
@@ -3102,7 +3300,7 @@
         <v>387</v>
       </c>
       <c r="E35" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3110,16 +3308,13 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>1548</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>4</v>
@@ -3128,7 +3323,7 @@
         <v>390</v>
       </c>
       <c r="E36" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3136,16 +3331,16 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>1776</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>4</v>
@@ -3162,11 +3357,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>39</v>
       </c>
@@ -3189,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>636</v>
       </c>
@@ -3203,7 +3398,7 @@
         <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -3211,8 +3406,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>378</v>
       </c>
@@ -3226,7 +3424,7 @@
         <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -3235,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>29</v>
       </c>
@@ -3258,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>277</v>
       </c>
@@ -3281,12 +3479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>498</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>6</v>
@@ -3295,7 +3493,7 @@
         <v>430</v>
       </c>
       <c r="E43" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -3304,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>741</v>
       </c>
@@ -3326,14 +3524,13 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>827</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>4</v>
@@ -3342,7 +3539,7 @@
         <v>421</v>
       </c>
       <c r="E45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -3351,12 +3548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>296</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>4</v>
@@ -3374,12 +3571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>1539</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>2</v>
@@ -3396,9 +3593,8 @@
       <c r="G47" s="20">
         <v>1</v>
       </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>162</v>
       </c>
@@ -3421,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>15</v>
       </c>
@@ -3444,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>221</v>
       </c>
@@ -3467,7 +3663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>1041</v>
       </c>
@@ -3489,9 +3685,8 @@
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>139</v>
       </c>
@@ -3514,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>31</v>
       </c>
@@ -3537,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>322</v>
       </c>
@@ -3560,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>11</v>
       </c>
@@ -3574,7 +3769,7 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3583,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>227</v>
       </c>
@@ -3606,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>518</v>
       </c>
@@ -3629,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>152</v>
       </c>
@@ -3652,7 +3847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>863</v>
       </c>
@@ -3675,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>300</v>
       </c>
@@ -3698,7 +3893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>332</v>
       </c>
@@ -3721,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>287</v>
       </c>
@@ -3743,9 +3938,8 @@
       <c r="G62">
         <v>2</v>
       </c>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>442</v>
       </c>
@@ -3768,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>974</v>
       </c>
@@ -3791,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>134</v>
       </c>
@@ -3814,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>18</v>
       </c>
@@ -3837,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>276</v>
       </c>
@@ -3860,7 +4054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>142</v>
       </c>
@@ -3874,7 +4068,7 @@
         <v>396</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F68" s="20">
         <v>1</v>
@@ -3882,9 +4076,8 @@
       <c r="G68" s="20">
         <v>2</v>
       </c>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>829</v>
       </c>
@@ -3907,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>4</v>
       </c>
@@ -3930,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>1192</v>
       </c>
@@ -3953,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>1335</v>
       </c>
@@ -3976,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>780</v>
       </c>
@@ -3999,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>127</v>
       </c>
@@ -4022,7 +4215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>10</v>
       </c>
@@ -4045,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>1235</v>
       </c>
@@ -4068,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>224</v>
       </c>
@@ -4091,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>1163</v>
       </c>
@@ -4113,9 +4306,8 @@
       <c r="G78">
         <v>2</v>
       </c>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>85</v>
       </c>
@@ -4138,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>1383</v>
       </c>
@@ -4160,9 +4352,8 @@
       <c r="G80">
         <v>2</v>
       </c>
-      <c r="H80" s="20"/>
-    </row>
-    <row r="81" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>84</v>
       </c>
@@ -4184,9 +4375,8 @@
       <c r="G81">
         <v>2</v>
       </c>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>772</v>
       </c>
@@ -4209,7 +4399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>1099</v>
       </c>
@@ -4232,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>53</v>
       </c>
@@ -4254,9 +4444,8 @@
       <c r="G84">
         <v>2</v>
       </c>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>283</v>
       </c>
@@ -4279,7 +4468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>453</v>
       </c>
@@ -4302,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>169</v>
       </c>
@@ -4325,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>204</v>
       </c>
@@ -4348,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>258</v>
       </c>
@@ -4371,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>172</v>
       </c>
@@ -4394,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>231</v>
       </c>
@@ -4417,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>146</v>
       </c>
@@ -4440,7 +4629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>200</v>
       </c>
@@ -4463,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -4486,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>56</v>
       </c>
@@ -4509,7 +4698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>5</v>
       </c>
@@ -4532,7 +4721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>91</v>
       </c>
@@ -4555,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>3</v>
       </c>
@@ -4578,7 +4767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>238</v>
       </c>
@@ -4601,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="26">
         <v>253</v>
       </c>
@@ -4624,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="26">
         <v>973</v>
       </c>
@@ -4646,9 +4835,8 @@
       <c r="G101">
         <v>3</v>
       </c>
-      <c r="H101" s="20"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>394</v>
       </c>
@@ -4671,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <v>1396</v>
       </c>
@@ -4694,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <v>763</v>
       </c>
@@ -4717,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
         <v>380</v>
       </c>
@@ -4740,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
         <v>560</v>
       </c>
@@ -4763,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>1249</v>
       </c>
@@ -4785,9 +4973,8 @@
       <c r="G107">
         <v>3</v>
       </c>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
         <v>17</v>
       </c>
@@ -4810,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>547</v>
       </c>
@@ -4833,7 +5020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26">
         <v>138</v>
       </c>
@@ -4856,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>443</v>
       </c>
@@ -4879,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="26">
         <v>981</v>
       </c>
@@ -4902,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>22</v>
       </c>
@@ -4924,9 +5111,8 @@
       <c r="G113">
         <v>3</v>
       </c>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="26">
         <v>79</v>
       </c>
@@ -4949,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>215</v>
       </c>
@@ -4972,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>347</v>
       </c>
@@ -4995,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>199</v>
       </c>
@@ -5018,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>46</v>
       </c>
@@ -5041,7 +5227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="26">
         <v>49</v>
       </c>
@@ -5063,9 +5249,8 @@
       <c r="G119">
         <v>3</v>
       </c>
-      <c r="H119" s="20"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="26">
         <v>692</v>
       </c>
@@ -5087,9 +5272,8 @@
       <c r="G120">
         <v>3</v>
       </c>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="26">
         <v>1197</v>
       </c>
@@ -5111,9 +5295,8 @@
       <c r="G121" s="20">
         <v>3</v>
       </c>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="26">
         <v>1152</v>
       </c>
@@ -5136,7 +5319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="26">
         <v>695</v>
       </c>
@@ -5159,7 +5342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="26">
         <v>105</v>
       </c>
@@ -5182,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="26">
         <v>1209</v>
       </c>
@@ -5196,7 +5379,7 @@
         <v>96</v>
       </c>
       <c r="E125" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5204,9 +5387,8 @@
       <c r="G125">
         <v>3</v>
       </c>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="26">
         <v>362</v>
       </c>
@@ -5220,7 +5402,7 @@
         <v>98</v>
       </c>
       <c r="E126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -5229,7 +5411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>236</v>
       </c>
@@ -5243,7 +5425,7 @@
         <v>103</v>
       </c>
       <c r="E127" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -5252,7 +5434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>532</v>
       </c>
@@ -5266,7 +5448,7 @@
         <v>105</v>
       </c>
       <c r="E128" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5275,7 +5457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>92</v>
       </c>
@@ -5289,7 +5471,7 @@
         <v>106</v>
       </c>
       <c r="E129" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -5298,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>6</v>
       </c>
@@ -5312,7 +5494,7 @@
         <v>112</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -5321,7 +5503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>45</v>
       </c>
@@ -5344,7 +5526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>739</v>
       </c>
@@ -5367,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <v>526</v>
       </c>
@@ -5381,7 +5563,7 @@
         <v>121</v>
       </c>
       <c r="E133" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -5390,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>1472</v>
       </c>
@@ -5404,7 +5586,7 @@
         <v>127</v>
       </c>
       <c r="E134" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5413,7 +5595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="31">
         <v>64</v>
       </c>
@@ -5436,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>78</v>
       </c>
@@ -5450,7 +5632,7 @@
         <v>131</v>
       </c>
       <c r="E136" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5458,9 +5640,8 @@
       <c r="G136" s="20">
         <v>3</v>
       </c>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="31">
         <v>103</v>
       </c>
@@ -5474,7 +5655,7 @@
         <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -5483,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>198</v>
       </c>
@@ -5506,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>647</v>
       </c>
@@ -5529,7 +5710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>348</v>
       </c>
@@ -5543,7 +5724,7 @@
         <v>145</v>
       </c>
       <c r="E140" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -5551,9 +5732,8 @@
       <c r="G140">
         <v>3</v>
       </c>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>240</v>
       </c>
@@ -5576,7 +5756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>289</v>
       </c>
@@ -5590,7 +5770,7 @@
         <v>156</v>
       </c>
       <c r="E142" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -5599,7 +5779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>279</v>
       </c>
@@ -5622,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>909</v>
       </c>
@@ -5636,7 +5816,7 @@
         <v>160</v>
       </c>
       <c r="E144" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -5645,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>207</v>
       </c>
@@ -5659,7 +5839,7 @@
         <v>172</v>
       </c>
       <c r="E145" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -5668,7 +5848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>98</v>
       </c>
@@ -5682,7 +5862,7 @@
         <v>204</v>
       </c>
       <c r="E146" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5691,7 +5871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>62</v>
       </c>
@@ -5714,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="31">
         <v>63</v>
       </c>
@@ -5737,7 +5917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="31">
         <v>1162</v>
       </c>
@@ -5751,7 +5931,7 @@
         <v>357</v>
       </c>
       <c r="E149" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -5760,12 +5940,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="32">
         <v>223</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>6</v>
@@ -5774,7 +5954,7 @@
         <v>383</v>
       </c>
       <c r="E150" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5783,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="32">
         <v>593</v>
       </c>
@@ -5806,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="26">
         <v>42</v>
       </c>
@@ -5829,7 +6009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="26">
         <v>273</v>
       </c>
@@ -5852,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="26">
         <v>68</v>
       </c>
@@ -5875,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="26">
         <v>23</v>
       </c>
@@ -5898,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="26">
         <v>295</v>
       </c>
@@ -5921,7 +6101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>393</v>
       </c>
@@ -5935,13 +6115,13 @@
         <v>169</v>
       </c>
       <c r="E157" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>8</v>
       </c>
@@ -5961,9 +6141,8 @@
         <v>1</v>
       </c>
       <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>1423</v>
       </c>
@@ -5982,11 +6161,8 @@
       <c r="F159">
         <v>1</v>
       </c>
-      <c r="H159" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>1570</v>
       </c>
@@ -6006,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>729</v>
       </c>
@@ -6020,22 +6196,19 @@
         <v>299</v>
       </c>
       <c r="E161" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
       <c r="G161"/>
-      <c r="H161" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
         <v>1254</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>6</v>
@@ -6050,11 +6223,8 @@
         <v>1</v>
       </c>
       <c r="G162"/>
-      <c r="H162" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>1631</v>
       </c>
@@ -6074,16 +6244,13 @@
         <v>1</v>
       </c>
       <c r="G163"/>
-      <c r="H163" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <v>1509</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>6</v>
@@ -6092,21 +6259,18 @@
         <v>395</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
-      <c r="H164" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="22">
         <v>731</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>6</v>
@@ -6115,13 +6279,13 @@
         <v>420</v>
       </c>
       <c r="E165" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>41</v>
       </c>
@@ -6138,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>76</v>
       </c>
@@ -6157,9 +6321,8 @@
       <c r="F167">
         <v>1</v>
       </c>
-      <c r="H167"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>588</v>
       </c>
@@ -6176,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>297</v>
       </c>
@@ -6196,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>128</v>
       </c>
@@ -6216,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>124</v>
       </c>
@@ -6235,9 +6398,8 @@
       <c r="F171">
         <v>1</v>
       </c>
-      <c r="H171" s="20"/>
-    </row>
-    <row r="172" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>460</v>
       </c>
@@ -6257,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
         <v>140</v>
       </c>
@@ -6274,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>25</v>
       </c>
@@ -6291,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>269</v>
       </c>
@@ -6312,7 +6474,7 @@
       </c>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>987</v>
       </c>
@@ -6326,13 +6488,13 @@
         <v>113</v>
       </c>
       <c r="E176" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>329</v>
       </c>
@@ -6346,15 +6508,14 @@
         <v>161</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F177">
         <v>1</v>
       </c>
       <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-    </row>
-    <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>679</v>
       </c>
@@ -6371,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>980</v>
       </c>
@@ -6389,9 +6550,8 @@
         <v>1</v>
       </c>
       <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-    </row>
-    <row r="180" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>1036</v>
       </c>
@@ -6409,14 +6569,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-    </row>
-    <row r="181" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <v>732</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>4</v>
@@ -6425,17 +6584,14 @@
         <v>400</v>
       </c>
       <c r="E181" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181"/>
-      <c r="H181" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>1</v>
       </c>
@@ -6452,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>121</v>
       </c>
@@ -6469,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>953</v>
       </c>
@@ -6486,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>20</v>
       </c>
@@ -6503,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>21</v>
       </c>
@@ -6520,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>206</v>
       </c>
@@ -6537,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
         <v>937</v>
       </c>
@@ -6557,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>415</v>
       </c>
@@ -6574,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>7</v>
       </c>
@@ -6591,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>176</v>
       </c>
@@ -6608,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>234</v>
       </c>
@@ -6625,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
         <v>155</v>
       </c>
@@ -6642,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>88</v>
       </c>
@@ -6659,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
         <v>706</v>
       </c>
@@ -6676,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>412</v>
       </c>
@@ -6693,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>811</v>
       </c>
@@ -6710,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>680</v>
       </c>
@@ -6727,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>67</v>
       </c>
@@ -6744,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>14</v>
       </c>
@@ -6762,9 +6918,8 @@
         <v>1</v>
       </c>
       <c r="G200"/>
-      <c r="H200"/>
-    </row>
-    <row r="201" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>202</v>
       </c>
@@ -6781,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>125</v>
       </c>
@@ -6798,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>13</v>
       </c>
@@ -6815,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>509</v>
       </c>
@@ -6832,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>1480</v>
       </c>
@@ -6849,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>9</v>
       </c>
@@ -6866,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>387</v>
       </c>
@@ -6883,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>203</v>
       </c>
@@ -6900,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>70</v>
       </c>
@@ -6917,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>543</v>
       </c>
@@ -6937,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>175</v>
       </c>
@@ -6957,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>83</v>
       </c>
@@ -6974,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>572</v>
       </c>
@@ -6994,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>101</v>
       </c>
@@ -7014,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>242</v>
       </c>
@@ -7031,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>724</v>
       </c>
@@ -7049,9 +7204,8 @@
         <v>1</v>
       </c>
       <c r="G216"/>
-      <c r="H216"/>
-    </row>
-    <row r="217" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>226</v>
       </c>
@@ -7071,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>359</v>
       </c>
@@ -7088,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>118</v>
       </c>
@@ -7105,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>268</v>
       </c>
@@ -7124,7 +7278,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>38</v>
       </c>
@@ -7141,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>344</v>
       </c>
@@ -7158,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>819</v>
       </c>
@@ -7175,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>1025</v>
       </c>
@@ -7192,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>278</v>
       </c>
@@ -7209,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>136</v>
       </c>
@@ -7226,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>1413</v>
       </c>
@@ -7243,9 +7397,8 @@
       <c r="F227">
         <v>1</v>
       </c>
-      <c r="H227" s="20"/>
-    </row>
-    <row r="228" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>122</v>
       </c>
@@ -7262,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>1480</v>
       </c>
@@ -7279,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>160</v>
       </c>
@@ -7296,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>108</v>
       </c>
@@ -7316,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>112</v>
       </c>
@@ -7333,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>141</v>
       </c>
@@ -7350,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>168</v>
       </c>
@@ -7368,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>205</v>
       </c>
@@ -7386,9 +7539,8 @@
         <v>1</v>
       </c>
       <c r="G235"/>
-      <c r="H235"/>
-    </row>
-    <row r="236" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>167</v>
       </c>
@@ -7405,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>66</v>
       </c>
@@ -7422,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>252</v>
       </c>
@@ -7439,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>157</v>
       </c>
@@ -7457,9 +7609,8 @@
         <v>1</v>
       </c>
       <c r="G239"/>
-      <c r="H239"/>
-    </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>270</v>
       </c>
@@ -7479,9 +7630,8 @@
         <v>1</v>
       </c>
       <c r="G240"/>
-      <c r="H240"/>
-    </row>
-    <row r="241" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>28</v>
       </c>
@@ -7498,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>257</v>
       </c>
@@ -7518,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>181</v>
       </c>
@@ -7538,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>171</v>
       </c>
@@ -7555,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>228</v>
       </c>
@@ -7572,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>104</v>
       </c>
@@ -7592,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>100</v>
       </c>
@@ -7612,9 +7762,8 @@
         <v>1</v>
       </c>
       <c r="G247"/>
-      <c r="H247"/>
-    </row>
-    <row r="248" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>235</v>
       </c>
@@ -7634,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>266</v>
       </c>
@@ -7651,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>163</v>
       </c>
@@ -7668,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>246</v>
       </c>
@@ -7687,7 +7836,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>110</v>
       </c>
@@ -7707,9 +7856,8 @@
         <v>1</v>
       </c>
       <c r="G252"/>
-      <c r="H252"/>
-    </row>
-    <row r="253" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>111</v>
       </c>
@@ -7729,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>243</v>
       </c>
@@ -7748,9 +7896,8 @@
       <c r="F254">
         <v>1</v>
       </c>
-      <c r="H254" s="20"/>
-    </row>
-    <row r="255" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>170</v>
       </c>
@@ -7767,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>293</v>
       </c>
@@ -7785,9 +7932,8 @@
         <v>1</v>
       </c>
       <c r="G256" s="20"/>
-      <c r="H256" s="20"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="22">
         <v>1047</v>
       </c>
@@ -7807,9 +7953,8 @@
         <v>1</v>
       </c>
       <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
-    </row>
-    <row r="258" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>34</v>
       </c>
@@ -7829,7 +7974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>523</v>
       </c>
@@ -7843,13 +7988,13 @@
         <v>199</v>
       </c>
       <c r="E259" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F259">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>133</v>
       </c>
@@ -7863,13 +8008,13 @@
         <v>218</v>
       </c>
       <c r="E260" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F260">
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>71</v>
       </c>
@@ -7883,13 +8028,13 @@
         <v>268</v>
       </c>
       <c r="E261" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F261">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>340</v>
       </c>
@@ -7909,7 +8054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>249</v>
       </c>
@@ -7923,13 +8068,13 @@
         <v>325</v>
       </c>
       <c r="E263" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F263">
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>173</v>
       </c>
@@ -7943,18 +8088,18 @@
         <v>329</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F264">
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="22">
         <v>1762</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>6</v>
@@ -7963,18 +8108,18 @@
         <v>422</v>
       </c>
       <c r="E265" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F265">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="22">
         <v>1650</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>6</v>
@@ -7983,18 +8128,18 @@
         <v>423</v>
       </c>
       <c r="E266" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F266">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="22">
         <v>708</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>6</v>
@@ -8003,18 +8148,18 @@
         <v>424</v>
       </c>
       <c r="E267" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F267">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="22">
         <v>536</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>6</v>
@@ -8023,18 +8168,18 @@
         <v>427</v>
       </c>
       <c r="E268" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F268">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="22">
         <v>1382</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>6</v>
@@ -8043,18 +8188,18 @@
         <v>428</v>
       </c>
       <c r="E269" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F269">
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="22">
         <v>398</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>6</v>
@@ -8069,12 +8214,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="22">
         <v>670</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C271" s="37" t="s">
         <v>6</v>
@@ -8083,18 +8228,18 @@
         <v>432</v>
       </c>
       <c r="E271" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F271">
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="22">
         <v>921</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>6</v>
@@ -8109,7 +8254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>65</v>
       </c>
@@ -8129,12 +8274,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="22">
         <v>317</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>4</v>
@@ -8143,18 +8288,18 @@
         <v>426</v>
       </c>
       <c r="E274" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F274">
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="22">
         <v>938</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>2</v>
@@ -8163,18 +8308,18 @@
         <v>433</v>
       </c>
       <c r="E275" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F275">
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="22">
         <v>1757</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>2</v>
@@ -8189,12 +8334,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>339</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>6</v>
@@ -8207,14 +8352,13 @@
         <v>2</v>
       </c>
       <c r="G277"/>
-      <c r="H277"/>
-    </row>
-    <row r="278" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="22">
         <v>463</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>2</v>
@@ -8229,14 +8373,13 @@
         <v>2</v>
       </c>
       <c r="G278"/>
-      <c r="H278"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="22">
         <v>605</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>2</v>
@@ -8251,7 +8394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>16</v>
       </c>
@@ -8271,9 +8414,8 @@
         <v>2</v>
       </c>
       <c r="G280"/>
-      <c r="H280"/>
-    </row>
-    <row r="281" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>51</v>
       </c>
@@ -8291,14 +8433,13 @@
         <v>2</v>
       </c>
       <c r="G281"/>
-      <c r="H281"/>
-    </row>
-    <row r="282" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <v>1004</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>6</v>
@@ -8311,14 +8452,13 @@
         <v>2</v>
       </c>
       <c r="G282"/>
-      <c r="H282"/>
-    </row>
-    <row r="283" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <v>129</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>6</v>
@@ -8331,14 +8471,13 @@
         <v>2</v>
       </c>
       <c r="G283"/>
-      <c r="H283"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
         <v>983</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>6</v>
@@ -8350,7 +8489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="33">
         <v>1102</v>
       </c>
@@ -8367,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A286" s="15">
         <v>75</v>
       </c>
@@ -8384,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="15">
         <v>406</v>
       </c>
@@ -8401,7 +8540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="15">
         <v>44</v>
       </c>
@@ -8419,9 +8558,8 @@
         <v>3</v>
       </c>
       <c r="G288" s="20"/>
-      <c r="H288" s="20"/>
-    </row>
-    <row r="289" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>609</v>
       </c>
@@ -8439,9 +8577,8 @@
         <v>3</v>
       </c>
       <c r="G289"/>
-      <c r="H289"/>
-    </row>
-    <row r="290" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <v>468</v>
       </c>
@@ -8458,7 +8595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>179</v>
       </c>
@@ -8475,7 +8612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>1242</v>
       </c>
@@ -8491,9 +8628,8 @@
       <c r="F292">
         <v>3</v>
       </c>
-      <c r="H292" s="20"/>
-    </row>
-    <row r="293" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>86</v>
       </c>
@@ -8510,7 +8646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>399</v>
       </c>
@@ -8527,7 +8663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>12</v>
       </c>
@@ -8544,7 +8680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>539</v>
       </c>
@@ -8562,9 +8698,8 @@
         <v>3</v>
       </c>
       <c r="G296"/>
-      <c r="H296"/>
-    </row>
-    <row r="297" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>388</v>
       </c>
@@ -8581,7 +8716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <v>723</v>
       </c>
@@ -8599,9 +8734,8 @@
         <v>3</v>
       </c>
       <c r="G298" s="20"/>
-      <c r="H298" s="20"/>
-    </row>
-    <row r="299" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <v>957</v>
       </c>
@@ -8619,9 +8753,8 @@
         <v>3</v>
       </c>
       <c r="G299" s="20"/>
-      <c r="H299" s="20"/>
-    </row>
-    <row r="300" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>309</v>
       </c>
@@ -8638,7 +8771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A301" s="15">
         <v>1348</v>
       </c>
@@ -8656,9 +8789,8 @@
         <v>3</v>
       </c>
       <c r="G301"/>
-      <c r="H301"/>
-    </row>
-    <row r="302" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>1048</v>
       </c>
@@ -8676,9 +8808,8 @@
         <v>3</v>
       </c>
       <c r="G302"/>
-      <c r="H302"/>
-    </row>
-    <row r="303" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>151</v>
       </c>
@@ -8695,7 +8826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>177</v>
       </c>
@@ -8712,7 +8843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <v>592</v>
       </c>
@@ -8730,9 +8861,8 @@
         <v>3</v>
       </c>
       <c r="G305" s="20"/>
-      <c r="H305" s="20"/>
-    </row>
-    <row r="306" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>143</v>
       </c>
@@ -8749,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>402</v>
       </c>
@@ -8766,7 +8896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>1438</v>
       </c>
@@ -8783,7 +8913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>1091</v>
       </c>
@@ -8800,7 +8930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <v>74</v>
       </c>
@@ -8818,9 +8948,8 @@
         <v>3</v>
       </c>
       <c r="G310" s="20"/>
-      <c r="H310" s="20"/>
-    </row>
-    <row r="311" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>1229</v>
       </c>
@@ -8837,7 +8966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>735</v>
       </c>
@@ -8855,7 +8984,7 @@
       </c>
       <c r="G312" s="20"/>
     </row>
-    <row r="313" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>1029</v>
       </c>
@@ -8872,7 +9001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="15">
         <v>545</v>
       </c>
@@ -8892,7 +9021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>19</v>
       </c>
@@ -8909,7 +9038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <v>1239</v>
       </c>
@@ -8927,9 +9056,8 @@
         <v>3</v>
       </c>
       <c r="G316" s="20"/>
-      <c r="H316" s="20"/>
-    </row>
-    <row r="317" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <v>1130</v>
       </c>
@@ -8949,7 +9077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>437</v>
       </c>
@@ -8966,7 +9094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>1344</v>
       </c>
@@ -8983,7 +9111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>1031</v>
       </c>
@@ -9000,7 +9128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>120</v>
       </c>
@@ -9017,7 +9145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>438</v>
       </c>
@@ -9034,7 +9162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>430</v>
       </c>
@@ -9051,7 +9179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>417</v>
       </c>
@@ -9068,7 +9196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>722</v>
       </c>
@@ -9085,7 +9213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>535</v>
       </c>
@@ -9102,7 +9230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>698</v>
       </c>
@@ -9119,7 +9247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>353</v>
       </c>
@@ -9136,7 +9264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>36</v>
       </c>
@@ -9154,14 +9282,13 @@
         <v>3</v>
       </c>
       <c r="G329"/>
-      <c r="H329"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="18">
         <v>562</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>6</v>
@@ -9174,16 +9301,13 @@
         <v>3</v>
       </c>
       <c r="G330" s="20"/>
-      <c r="H330" s="20" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="18">
         <v>792</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>6</v>
@@ -9194,16 +9318,13 @@
       <c r="F331">
         <v>3</v>
       </c>
-      <c r="H331" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <v>418</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>6</v>
@@ -9214,16 +9335,13 @@
       <c r="F332">
         <v>3</v>
       </c>
-      <c r="H332" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="18">
         <v>900</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>6</v>
@@ -9234,16 +9352,13 @@
       <c r="F333">
         <v>3</v>
       </c>
-      <c r="H333" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <v>963</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C334" s="8" t="s">
         <v>6</v>
@@ -9254,16 +9369,13 @@
       <c r="F334">
         <v>3</v>
       </c>
-      <c r="H334" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="18">
         <v>1277</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>6</v>
@@ -9274,11 +9386,8 @@
       <c r="F335">
         <v>3</v>
       </c>
-      <c r="H335" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>115</v>
       </c>
@@ -9296,9 +9405,8 @@
         <v>3</v>
       </c>
       <c r="G336"/>
-      <c r="H336"/>
-    </row>
-    <row r="337" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <v>72</v>
       </c>
@@ -9315,7 +9423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A338" s="15">
         <v>759</v>
       </c>
@@ -9333,9 +9441,8 @@
         <v>3</v>
       </c>
       <c r="G338" s="20"/>
-      <c r="H338" s="20"/>
-    </row>
-    <row r="339" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <v>37</v>
       </c>
@@ -9352,7 +9459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <v>1326</v>
       </c>
@@ -9370,9 +9477,8 @@
         <v>3</v>
       </c>
       <c r="G340" s="20"/>
-      <c r="H340" s="20"/>
-    </row>
-    <row r="341" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>158</v>
       </c>
@@ -9390,7 +9496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A342" s="15">
         <v>871</v>
       </c>
@@ -9408,9 +9514,8 @@
         <v>3</v>
       </c>
       <c r="G342" s="20"/>
-      <c r="H342" s="20"/>
-    </row>
-    <row r="343" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>828</v>
       </c>
@@ -9427,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>32</v>
       </c>
@@ -9444,7 +9549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A345" s="15">
         <v>363</v>
       </c>
@@ -9463,7 +9568,7 @@
       </c>
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A346" s="15">
         <v>212</v>
       </c>
@@ -9482,7 +9587,7 @@
       </c>
       <c r="G346" s="20"/>
     </row>
-    <row r="347" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <v>472</v>
       </c>
@@ -9499,9 +9604,8 @@
       <c r="F347">
         <v>3</v>
       </c>
-      <c r="H347" s="20"/>
-    </row>
-    <row r="348" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <v>1220</v>
       </c>
@@ -9519,9 +9623,8 @@
         <v>3</v>
       </c>
       <c r="G348" s="20"/>
-      <c r="H348" s="20"/>
-    </row>
-    <row r="349" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>403</v>
       </c>
@@ -9538,7 +9641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>123</v>
       </c>
@@ -9555,7 +9658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>315</v>
       </c>
@@ -9572,7 +9675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>642</v>
       </c>
@@ -9589,12 +9692,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="18">
         <v>1610</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>4</v>
@@ -9605,16 +9708,13 @@
       <c r="F353">
         <v>3</v>
       </c>
-      <c r="H353" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="18">
         <v>1526</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C354" s="9" t="s">
         <v>4</v>
@@ -9625,16 +9725,13 @@
       <c r="F354">
         <v>3</v>
       </c>
-      <c r="H354" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="18">
         <v>727</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C355" s="9" t="s">
         <v>4</v>
@@ -9645,16 +9742,13 @@
       <c r="F355">
         <v>3</v>
       </c>
-      <c r="H355" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="18">
         <v>1088</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C356" s="9" t="s">
         <v>4</v>
@@ -9665,16 +9759,13 @@
       <c r="F356">
         <v>3</v>
       </c>
-      <c r="H356" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="18">
         <v>1406</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>4</v>
@@ -9685,16 +9776,13 @@
       <c r="F357">
         <v>3</v>
       </c>
-      <c r="H357" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="18">
         <v>308</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C358" s="9" t="s">
         <v>4</v>
@@ -9705,11 +9793,8 @@
       <c r="F358">
         <v>3</v>
       </c>
-      <c r="H358" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>581</v>
       </c>
@@ -9722,9 +9807,8 @@
       <c r="D359" s="11">
         <v>269</v>
       </c>
-      <c r="H359" s="20"/>
-    </row>
-    <row r="360" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A360" s="15">
         <v>102</v>
       </c>
@@ -9741,7 +9825,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>718</v>
       </c>
@@ -9755,7 +9839,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>797</v>
       </c>
@@ -9769,7 +9853,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>73</v>
       </c>
@@ -9783,7 +9867,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>395</v>
       </c>
@@ -9797,7 +9881,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>1381</v>
       </c>
@@ -9811,7 +9895,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>529</v>
       </c>
@@ -9825,7 +9909,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <v>114</v>
       </c>
@@ -9842,7 +9926,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <v>43</v>
       </c>
@@ -10936,7 +11020,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H443">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G443">
     <sortCondition ref="G237:G443"/>
   </sortState>
   <hyperlinks>
@@ -11450,7 +11534,7 @@
         <v>420</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE7138-3C89-4D20-B912-186D814D990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E7441-3A65-444A-B6FE-42974914FD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4290" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
   <dimension ref="A1:AD442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B103" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E7441-3A65-444A-B6FE-42974914FD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D486D12-FE65-4637-9DCC-9E26C33FB8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="592">
   <si>
     <t>Difficulty</t>
   </si>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
   <dimension ref="A1:AD442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B103" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B241" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10930,6 +10930,9 @@
       </c>
       <c r="D436" s="11">
         <v>296</v>
+      </c>
+      <c r="E436" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">

--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHome\LTC\my-app\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elon.jiang/development/ltc/LTC/my-app/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D486D12-FE65-4637-9DCC-9E26C33FB8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDA65D3-EDD7-3E40-9AC6-E82193397477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="-16000" windowWidth="24000" windowHeight="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
     <sheet name="其它" sheetId="3" r:id="rId2"/>
     <sheet name="面经https   leetcode.com discuss " sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$B$1:$B$442</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2295,33 +2298,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
   <dimension ref="A1:AD442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B241" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="76" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="11" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28.5" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="18.1640625" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>392</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>54</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>33</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>1428</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>528</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>767</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>48</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>994</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>621</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1283</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>445</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>721</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>211</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>986</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>209</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>341</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>210</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>50</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>148</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>426</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>94</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>285</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>853</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>837</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>454</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>787</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
         <v>516</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>652</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>420</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>239</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>301</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>843</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>465</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>1499</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>715</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="33">
         <v>1548</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>1776</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>39</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>636</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>378</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <v>29</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>277</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="33">
         <v>498</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <v>741</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="33">
         <v>827</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>296</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
         <v>1539</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
         <v>162</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>15</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>221</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>1041</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>139</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>31</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="24">
         <v>322</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="24">
         <v>11</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="24">
         <v>227</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="24">
         <v>518</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>152</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
         <v>863</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
         <v>300</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
         <v>332</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
         <v>287</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
         <v>442</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="25">
         <v>974</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>134</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>18</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>276</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>142</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>829</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="24">
         <v>4</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>1192</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="24">
         <v>1335</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="24">
         <v>780</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>127</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="24">
         <v>10</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="24">
         <v>1235</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>224</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1163</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>85</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>1383</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>84</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
         <v>772</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>1099</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>53</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="25">
         <v>283</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
         <v>453</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
         <v>169</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="25">
         <v>204</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
         <v>258</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
         <v>172</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
         <v>231</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="26">
         <v>146</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="26">
         <v>200</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="26">
         <v>2</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="26">
         <v>56</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="26">
         <v>5</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="26">
         <v>91</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="26">
         <v>3</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="26">
         <v>238</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="26">
         <v>253</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="26">
         <v>973</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="26">
         <v>394</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="26">
         <v>1396</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="26">
         <v>763</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="26">
         <v>380</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="26">
         <v>560</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="26">
         <v>1249</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="26">
         <v>17</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="26">
         <v>547</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="26">
         <v>138</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="26">
         <v>443</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="26">
         <v>981</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="26">
         <v>22</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="26">
         <v>79</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="26">
         <v>215</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="26">
         <v>347</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="26">
         <v>199</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="26">
         <v>46</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="26">
         <v>49</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="26">
         <v>692</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="26">
         <v>1197</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="26">
         <v>1152</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="26">
         <v>695</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="26">
         <v>105</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="26">
         <v>1209</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="26">
         <v>362</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="31">
         <v>236</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="31">
         <v>532</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="31">
         <v>92</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="31">
         <v>6</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="31">
         <v>45</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="31">
         <v>739</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="31">
         <v>526</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="31">
         <v>1472</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="31">
         <v>64</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="31">
         <v>78</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="31">
         <v>103</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="31">
         <v>198</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="31">
         <v>647</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="31">
         <v>348</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="31">
         <v>240</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="31">
         <v>289</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="31">
         <v>279</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="31">
         <v>909</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="31">
         <v>207</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="31">
         <v>98</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="31">
         <v>62</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="31">
         <v>63</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="31">
         <v>1162</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="32">
         <v>223</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="32">
         <v>593</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="26">
         <v>42</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="26">
         <v>273</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="26">
         <v>68</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="26">
         <v>23</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="26">
         <v>295</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>393</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>8</v>
       </c>
@@ -6142,7 +6145,7 @@
       </c>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>1423</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
         <v>1570</v>
       </c>
@@ -6182,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>729</v>
       </c>
@@ -6203,7 +6206,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="22">
         <v>1254</v>
       </c>
@@ -6224,7 +6227,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="22">
         <v>1631</v>
       </c>
@@ -6245,7 +6248,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="22">
         <v>1509</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="22">
         <v>731</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
         <v>41</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
         <v>76</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="13">
         <v>588</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="13">
         <v>297</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="13">
         <v>128</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
         <v>124</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="13">
         <v>460</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
         <v>140</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
         <v>25</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
         <v>269</v>
       </c>
@@ -6474,7 +6477,7 @@
       </c>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="14">
         <v>987</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="14">
         <v>329</v>
       </c>
@@ -6515,7 +6518,7 @@
       </c>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="14">
         <v>679</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="14">
         <v>980</v>
       </c>
@@ -6551,7 +6554,7 @@
       </c>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="14">
         <v>1036</v>
       </c>
@@ -6570,7 +6573,7 @@
       </c>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="34">
         <v>732</v>
       </c>
@@ -6591,7 +6594,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="13">
         <v>1</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
         <v>121</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
         <v>953</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
         <v>20</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
         <v>21</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
         <v>206</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
         <v>937</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
         <v>415</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
         <v>7</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
         <v>176</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
         <v>234</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
         <v>155</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
         <v>88</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
         <v>706</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="14">
         <v>412</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="14">
         <v>811</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="14">
         <v>680</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>67</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>14</v>
       </c>
@@ -6919,7 +6922,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>202</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="14">
         <v>125</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="14">
         <v>13</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="14">
         <v>509</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>1480</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="14">
         <v>9</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="14">
         <v>387</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="14">
         <v>203</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="14">
         <v>70</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="14">
         <v>543</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="14">
         <v>175</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="14">
         <v>83</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="14">
         <v>572</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>101</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="14">
         <v>242</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="14">
         <v>724</v>
       </c>
@@ -7205,7 +7208,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="14">
         <v>226</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="14">
         <v>359</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="14">
         <v>118</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="14">
         <v>268</v>
       </c>
@@ -7278,7 +7281,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="14">
         <v>38</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="14">
         <v>344</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="14">
         <v>819</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>1025</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="14">
         <v>278</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="14">
         <v>136</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="14">
         <v>1413</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="14">
         <v>122</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="14">
         <v>1480</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="14">
         <v>160</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="14">
         <v>108</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="14">
         <v>112</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="14">
         <v>141</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="14">
         <v>168</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="14">
         <v>205</v>
       </c>
@@ -7540,7 +7543,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="14">
         <v>167</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="14">
         <v>66</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="14">
         <v>252</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="14">
         <v>157</v>
       </c>
@@ -7610,7 +7613,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="14">
         <v>270</v>
       </c>
@@ -7631,7 +7634,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="14">
         <v>28</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="14">
         <v>257</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="14">
         <v>181</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="14">
         <v>171</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="14">
         <v>228</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="14">
         <v>104</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="14">
         <v>100</v>
       </c>
@@ -7763,7 +7766,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="14">
         <v>235</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="14">
         <v>266</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="14">
         <v>163</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="14">
         <v>246</v>
       </c>
@@ -7836,7 +7839,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="14">
         <v>110</v>
       </c>
@@ -7857,7 +7860,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="14">
         <v>111</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="14">
         <v>243</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="14">
         <v>170</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="14">
         <v>293</v>
       </c>
@@ -7933,7 +7936,7 @@
       </c>
       <c r="G256" s="20"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="22">
         <v>1047</v>
       </c>
@@ -7954,7 +7957,7 @@
       </c>
       <c r="G257" s="20"/>
     </row>
-    <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="14">
         <v>34</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="14">
         <v>523</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="14">
         <v>133</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="14">
         <v>71</v>
       </c>
@@ -8034,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="14">
         <v>340</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="14">
         <v>249</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="14">
         <v>173</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="22">
         <v>1762</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="22">
         <v>1650</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="22">
         <v>708</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="22">
         <v>536</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="22">
         <v>1382</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="22">
         <v>398</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="22">
         <v>670</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="22">
         <v>921</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="14">
         <v>65</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="22">
         <v>317</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="22">
         <v>938</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="22">
         <v>1757</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="11">
         <v>339</v>
       </c>
@@ -8353,7 +8356,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="22">
         <v>463</v>
       </c>
@@ -8374,7 +8377,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="22">
         <v>605</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="14">
         <v>16</v>
       </c>
@@ -8415,7 +8418,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>51</v>
       </c>
@@ -8434,7 +8437,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="11">
         <v>1004</v>
       </c>
@@ -8453,7 +8456,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="11">
         <v>129</v>
       </c>
@@ -8472,7 +8475,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="11">
         <v>983</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="33">
         <v>1102</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="15">
         <v>75</v>
       </c>
@@ -8523,7 +8526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="15">
         <v>406</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="15">
         <v>44</v>
       </c>
@@ -8559,7 +8562,7 @@
       </c>
       <c r="G288" s="20"/>
     </row>
-    <row r="289" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>609</v>
       </c>
@@ -8578,7 +8581,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="15">
         <v>468</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>179</v>
       </c>
@@ -8612,7 +8615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>1242</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>86</v>
       </c>
@@ -8646,7 +8649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>399</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>12</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>539</v>
       </c>
@@ -8699,7 +8702,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>388</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="15">
         <v>723</v>
       </c>
@@ -8735,7 +8738,7 @@
       </c>
       <c r="G298" s="20"/>
     </row>
-    <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="15">
         <v>957</v>
       </c>
@@ -8754,7 +8757,7 @@
       </c>
       <c r="G299" s="20"/>
     </row>
-    <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>309</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="15">
         <v>1348</v>
       </c>
@@ -8790,7 +8793,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>1048</v>
       </c>
@@ -8809,7 +8812,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>151</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>177</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="15">
         <v>592</v>
       </c>
@@ -8862,7 +8865,7 @@
       </c>
       <c r="G305" s="20"/>
     </row>
-    <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>143</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>402</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>1438</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>1091</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="15">
         <v>74</v>
       </c>
@@ -8949,7 +8952,7 @@
       </c>
       <c r="G310" s="20"/>
     </row>
-    <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>1229</v>
       </c>
@@ -8966,7 +8969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>735</v>
       </c>
@@ -8984,7 +8987,7 @@
       </c>
       <c r="G312" s="20"/>
     </row>
-    <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>1029</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="15">
         <v>545</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>19</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="15">
         <v>1239</v>
       </c>
@@ -9057,7 +9060,7 @@
       </c>
       <c r="G316" s="20"/>
     </row>
-    <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="15">
         <v>1130</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>437</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>1344</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>1031</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>120</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>438</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>430</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>417</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>722</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>535</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>698</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>353</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>36</v>
       </c>
@@ -9283,7 +9286,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <v>562</v>
       </c>
@@ -9302,7 +9305,7 @@
       </c>
       <c r="G330" s="20"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <v>792</v>
       </c>
@@ -9319,7 +9322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <v>418</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <v>900</v>
       </c>
@@ -9353,7 +9356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <v>963</v>
       </c>
@@ -9370,7 +9373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <v>1277</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:7" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>115</v>
       </c>
@@ -9406,7 +9409,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="15">
         <v>72</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="15">
         <v>759</v>
       </c>
@@ -9442,7 +9445,7 @@
       </c>
       <c r="G338" s="20"/>
     </row>
-    <row r="339" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="15">
         <v>37</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="15">
         <v>1326</v>
       </c>
@@ -9478,7 +9481,7 @@
       </c>
       <c r="G340" s="20"/>
     </row>
-    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>158</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="15">
         <v>871</v>
       </c>
@@ -9515,7 +9518,7 @@
       </c>
       <c r="G342" s="20"/>
     </row>
-    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>828</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>32</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="15">
         <v>363</v>
       </c>
@@ -9568,7 +9571,7 @@
       </c>
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="15">
         <v>212</v>
       </c>
@@ -9587,7 +9590,7 @@
       </c>
       <c r="G346" s="20"/>
     </row>
-    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="15">
         <v>472</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="15">
         <v>1220</v>
       </c>
@@ -9624,7 +9627,7 @@
       </c>
       <c r="G348" s="20"/>
     </row>
-    <row r="349" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>403</v>
       </c>
@@ -9641,7 +9644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>123</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>315</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>642</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <v>1610</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <v>1526</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <v>727</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <v>1088</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <v>1406</v>
       </c>
@@ -9777,7 +9780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <v>308</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>581</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="15">
         <v>102</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>718</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>797</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>73</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>395</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>1381</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>529</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="15">
         <v>114</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
         <v>43</v>
       </c>
@@ -9943,7 +9946,7 @@
       <c r="F368" s="20"/>
       <c r="G368" s="20"/>
     </row>
-    <row r="369" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>311</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>153</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>540</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>1244</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>309</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="15">
         <v>208</v>
       </c>
@@ -10030,7 +10033,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>256</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="15">
         <v>314</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>187</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>166</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>61</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>150</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>264</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>130</v>
       </c>
@@ -10145,7 +10148,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="15">
         <v>96</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>57</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>229</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>323</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="15">
         <v>106</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>316</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>47</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>259</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>244</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>113</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>189</v>
       </c>
@@ -10305,7 +10308,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>159</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>280</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>247</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>230</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="15">
         <v>261</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="15">
         <v>95</v>
       </c>
@@ -10395,7 +10398,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>186</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>89</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="15">
         <v>255</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>274</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="15">
         <v>145</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="15">
         <v>144</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>281</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>271</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>288</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>245</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>254</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>294</v>
       </c>
@@ -10572,7 +10575,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="12">
         <v>749</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>1531</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>770</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>188</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="15">
         <v>149</v>
       </c>
@@ -10645,7 +10648,7 @@
       <c r="F416" s="20"/>
       <c r="G416" s="20"/>
     </row>
-    <row r="417" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>489</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>920</v>
       </c>
@@ -10673,7 +10676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>126</v>
       </c>
@@ -10687,7 +10690,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>493</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>214</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>354</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>1293</v>
       </c>
@@ -10744,7 +10747,7 @@
       </c>
       <c r="G423" s="20"/>
     </row>
-    <row r="424" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>564</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>312</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>480</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>336</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>97</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>761</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="15">
         <v>428</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>87</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="15">
         <v>99</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>135</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>1359</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>1153</v>
       </c>
@@ -10918,7 +10921,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>471</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>60</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <v>282</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>218</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>265</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <v>305</v>
       </c>
@@ -11005,7 +11008,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="15">
         <v>272</v>
       </c>
@@ -11023,6 +11026,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B442" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G443">
     <sortCondition ref="G237:G443"/>
   </sortState>
@@ -11482,15 +11486,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>408</v>
       </c>
@@ -11504,7 +11508,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11515,7 +11519,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11526,7 +11530,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11584,32 +11588,32 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="121.28515625" customWidth="1"/>
+    <col min="1" max="1" width="121.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>432</v>
       </c>

--- a/my-app/src/main/resources/LeetCode Problems.xlsx
+++ b/my-app/src/main/resources/LeetCode Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2EF9C0-3D94-41CB-8EB1-4C8ED425FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963398D-2055-4E77-B6CB-FA96DB59CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$B$1:$B$445</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="622">
   <si>
     <t>Difficulty</t>
   </si>
@@ -1390,9 +1389,6 @@
     <t>Prefix &amp; Suffix</t>
   </si>
   <si>
-    <t>Design, LinkedMap</t>
-  </si>
-  <si>
     <t>Graph, DFS</t>
   </si>
   <si>
@@ -1904,6 +1900,12 @@
   </si>
   <si>
     <t>Jumping Pointers, Monotonic Stack</t>
+  </si>
+  <si>
+    <t>Design, HashMap, Doubly LinkedList</t>
+  </si>
+  <si>
+    <t>BackTracking, Calculator</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968327A1-4CEA-4BAE-916E-B4268D72B51E}">
   <dimension ref="A1:AE445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2439,7 +2441,7 @@
         <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G1" t="s">
         <v>411</v>
@@ -2457,55 +2459,55 @@
         <v>395</v>
       </c>
       <c r="L1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M1" t="s">
         <v>415</v>
       </c>
       <c r="N1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O1" t="s">
+        <v>578</v>
+      </c>
+      <c r="P1" t="s">
         <v>579</v>
       </c>
-      <c r="P1" t="s">
-        <v>580</v>
-      </c>
       <c r="Q1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R1" t="s">
         <v>400</v>
       </c>
       <c r="S1" t="s">
+        <v>580</v>
+      </c>
+      <c r="T1" t="s">
+        <v>486</v>
+      </c>
+      <c r="U1" t="s">
         <v>581</v>
-      </c>
-      <c r="T1" t="s">
-        <v>487</v>
-      </c>
-      <c r="U1" t="s">
-        <v>582</v>
       </c>
       <c r="V1" t="s">
         <v>404</v>
       </c>
       <c r="W1" t="s">
+        <v>582</v>
+      </c>
+      <c r="X1" t="s">
         <v>583</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>584</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA1" t="s">
         <v>585</v>
       </c>
-      <c r="Z1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>586</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>587</v>
       </c>
       <c r="AC1" t="s">
         <v>413</v>
@@ -2514,7 +2516,7 @@
         <v>439</v>
       </c>
       <c r="AE1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2531,7 +2533,7 @@
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2557,7 +2559,7 @@
         <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2854,7 +2856,7 @@
         <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2877,7 +2879,7 @@
         <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2900,7 +2902,7 @@
         <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2946,7 +2948,7 @@
         <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2969,7 +2971,7 @@
         <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3061,7 +3063,7 @@
         <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3084,7 +3086,7 @@
         <v>374</v>
       </c>
       <c r="E25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3107,7 +3109,7 @@
         <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3130,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3153,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3176,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3199,7 +3201,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3222,7 +3224,7 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3245,7 +3247,7 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3268,7 +3270,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3291,7 +3293,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3314,7 +3316,7 @@
         <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3337,7 +3339,7 @@
         <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3360,7 +3362,7 @@
         <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3383,7 +3385,7 @@
         <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3406,7 +3408,7 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3429,7 +3431,7 @@
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3452,7 +3454,7 @@
         <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3475,7 +3477,7 @@
         <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3498,7 +3500,7 @@
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3521,7 +3523,7 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3544,7 +3546,7 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3567,7 +3569,7 @@
         <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3590,7 +3592,7 @@
         <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3659,7 +3661,7 @@
         <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4284,7 +4286,7 @@
         <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4333,7 +4335,7 @@
         <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4356,7 +4358,7 @@
         <v>300</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4468,7 +4470,7 @@
         <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4594,7 +4596,7 @@
         <v>1548</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>4</v>
@@ -4603,7 +4605,7 @@
         <v>390</v>
       </c>
       <c r="E100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -4649,7 +4651,7 @@
         <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4683,7 +4685,7 @@
         <v>1499</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>4</v>
@@ -4692,7 +4694,7 @@
         <v>383</v>
       </c>
       <c r="E104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4721,7 +4723,7 @@
         <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4741,7 +4743,7 @@
         <v>732</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>4</v>
@@ -4750,7 +4752,7 @@
         <v>400</v>
       </c>
       <c r="E106" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4761,7 +4763,7 @@
         <v>1776</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>4</v>
@@ -4842,7 +4844,7 @@
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -4911,7 +4913,7 @@
         <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4940,7 +4942,7 @@
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -4963,7 +4965,7 @@
         <v>97</v>
       </c>
       <c r="E115" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -5000,7 +5002,7 @@
         <v>715</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>4</v>
@@ -5009,7 +5011,7 @@
         <v>387</v>
       </c>
       <c r="E117" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5115,7 +5117,7 @@
         <v>113</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5323,7 +5325,7 @@
         <v>52</v>
       </c>
       <c r="E133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -5346,7 +5348,7 @@
         <v>96</v>
       </c>
       <c r="E134" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5372,7 +5374,7 @@
         <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -5421,7 +5423,7 @@
         <v>121</v>
       </c>
       <c r="E137" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -5444,7 +5446,7 @@
         <v>131</v>
       </c>
       <c r="E138" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -5467,7 +5469,7 @@
         <v>55</v>
       </c>
       <c r="E139" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -5490,7 +5492,7 @@
         <v>54</v>
       </c>
       <c r="E140" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -5513,7 +5515,7 @@
         <v>62</v>
       </c>
       <c r="E141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -5640,7 +5642,7 @@
         <v>169</v>
       </c>
       <c r="E146" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5660,7 +5662,7 @@
         <v>75</v>
       </c>
       <c r="E147" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5683,7 +5685,7 @@
         <v>74</v>
       </c>
       <c r="E148" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -5715,7 +5717,7 @@
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -5738,7 +5740,7 @@
         <v>271</v>
       </c>
       <c r="E150" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5758,7 +5760,7 @@
         <v>53</v>
       </c>
       <c r="E151" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -5781,7 +5783,7 @@
         <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5804,13 +5806,16 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>449</v>
+        <v>620</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153">
         <v>3</v>
+      </c>
+      <c r="H153" s="37">
+        <v>44835</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
@@ -5827,7 +5832,7 @@
         <v>127</v>
       </c>
       <c r="E154" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -5850,7 +5855,7 @@
         <v>145</v>
       </c>
       <c r="E155" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -5873,7 +5878,7 @@
         <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5896,7 +5901,7 @@
         <v>155</v>
       </c>
       <c r="E157" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -5919,7 +5924,7 @@
         <v>139</v>
       </c>
       <c r="E158" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -5933,7 +5938,7 @@
         <v>837</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>6</v>
@@ -6391,7 +6396,7 @@
         <v>396</v>
       </c>
       <c r="E178" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -6460,7 +6465,7 @@
         <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -6483,7 +6488,7 @@
         <v>88</v>
       </c>
       <c r="E182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -6515,7 +6520,7 @@
         <v>357</v>
       </c>
       <c r="E183" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6538,7 +6543,7 @@
         <v>49</v>
       </c>
       <c r="E184" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -6561,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -6587,7 +6592,7 @@
         <v>92</v>
       </c>
       <c r="E186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -6601,7 +6606,7 @@
         <v>1254</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>6</v>
@@ -6610,7 +6615,7 @@
         <v>385</v>
       </c>
       <c r="E187" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -6630,7 +6635,7 @@
         <v>46</v>
       </c>
       <c r="E188" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6722,7 +6727,7 @@
         <v>163</v>
       </c>
       <c r="E192" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -6751,7 +6756,7 @@
         <v>172</v>
       </c>
       <c r="E193" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -6774,7 +6779,7 @@
         <v>125</v>
       </c>
       <c r="E194" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -6823,7 +6828,7 @@
         <v>105</v>
       </c>
       <c r="E196" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -6846,7 +6851,7 @@
         <v>64</v>
       </c>
       <c r="E197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -6869,7 +6874,7 @@
         <v>80</v>
       </c>
       <c r="E198" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -6901,7 +6906,7 @@
         <v>66</v>
       </c>
       <c r="E199" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -6915,7 +6920,7 @@
         <v>223</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>6</v>
@@ -6924,7 +6929,7 @@
         <v>383</v>
       </c>
       <c r="E200" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -6950,7 +6955,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -6976,7 +6981,7 @@
         <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -6999,7 +7004,7 @@
         <v>21</v>
       </c>
       <c r="E203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -7022,7 +7027,7 @@
         <v>299</v>
       </c>
       <c r="E204" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -7033,7 +7038,7 @@
         <v>731</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>6</v>
@@ -7042,7 +7047,7 @@
         <v>420</v>
       </c>
       <c r="E205" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -7062,7 +7067,7 @@
         <v>118</v>
       </c>
       <c r="E206" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -7114,7 +7119,7 @@
         <v>106</v>
       </c>
       <c r="E208" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -7137,7 +7142,7 @@
         <v>174</v>
       </c>
       <c r="E209" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -7172,7 +7177,7 @@
         <v>107</v>
       </c>
       <c r="E210" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -7195,7 +7200,7 @@
         <v>112</v>
       </c>
       <c r="E211" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -7218,7 +7223,7 @@
         <v>170</v>
       </c>
       <c r="E212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -7261,7 +7266,7 @@
         <v>101</v>
       </c>
       <c r="E214" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -7290,7 +7295,7 @@
         <v>164</v>
       </c>
       <c r="E215" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -7322,7 +7327,7 @@
         <v>35</v>
       </c>
       <c r="E216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -7345,7 +7350,7 @@
         <v>388</v>
       </c>
       <c r="E217" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -7368,7 +7373,7 @@
         <v>31</v>
       </c>
       <c r="E218" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -7391,7 +7396,7 @@
         <v>87</v>
       </c>
       <c r="E219" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -7420,7 +7425,7 @@
         <v>43</v>
       </c>
       <c r="E220" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -7446,7 +7451,7 @@
         <v>142</v>
       </c>
       <c r="E221" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -7469,7 +7474,7 @@
         <v>39</v>
       </c>
       <c r="E222" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -7486,7 +7491,7 @@
         <v>853</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>6</v>
@@ -7518,7 +7523,7 @@
         <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -7544,7 +7549,7 @@
         <v>33</v>
       </c>
       <c r="E225" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -7567,7 +7572,7 @@
         <v>154</v>
       </c>
       <c r="E226" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -7616,7 +7621,7 @@
         <v>60</v>
       </c>
       <c r="E228" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -7639,7 +7644,7 @@
         <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -7731,7 +7736,7 @@
         <v>86</v>
       </c>
       <c r="E233" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -7754,7 +7759,7 @@
         <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -7768,7 +7773,7 @@
         <v>1509</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>6</v>
@@ -7777,7 +7782,7 @@
         <v>395</v>
       </c>
       <c r="E235" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -7797,7 +7802,7 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -7820,7 +7825,7 @@
         <v>156</v>
       </c>
       <c r="E237" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -7866,7 +7871,7 @@
         <v>270</v>
       </c>
       <c r="E239" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -7883,7 +7888,7 @@
         <v>652</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>6</v>
@@ -7892,7 +7897,7 @@
         <v>396</v>
       </c>
       <c r="E240" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -7967,7 +7972,7 @@
         <v>133</v>
       </c>
       <c r="E243" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -7993,7 +7998,7 @@
         <v>204</v>
       </c>
       <c r="E244" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -8016,7 +8021,7 @@
         <v>358</v>
       </c>
       <c r="E245" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -8042,7 +8047,7 @@
         <v>344</v>
       </c>
       <c r="E246" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -8068,7 +8073,7 @@
         <v>103</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -8082,7 +8087,7 @@
         <v>1539</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>2</v>
@@ -8108,7 +8113,7 @@
         <v>463</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>2</v>
@@ -8117,7 +8122,7 @@
         <v>438</v>
       </c>
       <c r="E249" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -8154,7 +8159,7 @@
         <v>605</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>2</v>
@@ -8177,7 +8182,7 @@
         <v>1757</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>2</v>
@@ -8200,7 +8205,7 @@
         <v>938</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>2</v>
@@ -8209,7 +8214,7 @@
         <v>433</v>
       </c>
       <c r="E252" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -8246,7 +8251,7 @@
         <v>317</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>4</v>
@@ -8255,7 +8260,7 @@
         <v>426</v>
       </c>
       <c r="E254" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -8266,7 +8271,7 @@
         <v>827</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>4</v>
@@ -8275,7 +8280,7 @@
         <v>421</v>
       </c>
       <c r="E255" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -8298,7 +8303,7 @@
         <v>228</v>
       </c>
       <c r="E256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -8309,7 +8314,7 @@
         <v>296</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>4</v>
@@ -8369,7 +8374,7 @@
         <v>398</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>6</v>
@@ -8378,7 +8383,7 @@
         <v>429</v>
       </c>
       <c r="E260" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -8398,7 +8403,7 @@
         <v>218</v>
       </c>
       <c r="E261" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -8441,7 +8446,7 @@
         <v>325</v>
       </c>
       <c r="E263" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -8472,7 +8477,7 @@
         <v>708</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>6</v>
@@ -8481,7 +8486,7 @@
         <v>424</v>
       </c>
       <c r="E265" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -8524,7 +8529,7 @@
         <v>214</v>
       </c>
       <c r="E267" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -8538,7 +8543,7 @@
         <v>921</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>6</v>
@@ -8547,7 +8552,7 @@
         <v>435</v>
       </c>
       <c r="E268" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F268">
         <v>2</v>
@@ -8567,7 +8572,7 @@
         <v>199</v>
       </c>
       <c r="E269" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -8578,7 +8583,7 @@
         <v>1762</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>6</v>
@@ -8587,7 +8592,7 @@
         <v>422</v>
       </c>
       <c r="E270" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -8598,7 +8603,7 @@
         <v>670</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C271" s="35" t="s">
         <v>6</v>
@@ -8607,7 +8612,7 @@
         <v>432</v>
       </c>
       <c r="E271" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -8670,7 +8675,7 @@
         <v>198</v>
       </c>
       <c r="E274" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -8696,7 +8701,7 @@
         <v>268</v>
       </c>
       <c r="E275" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F275">
         <v>2</v>
@@ -8707,7 +8712,7 @@
         <v>1382</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>6</v>
@@ -8716,7 +8721,7 @@
         <v>428</v>
       </c>
       <c r="E276" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -8736,7 +8741,7 @@
         <v>329</v>
       </c>
       <c r="E277" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -8747,7 +8752,7 @@
         <v>1650</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>6</v>
@@ -8756,7 +8761,7 @@
         <v>423</v>
       </c>
       <c r="E278" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F278">
         <v>2</v>
@@ -8767,7 +8772,7 @@
         <v>536</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>6</v>
@@ -8776,7 +8781,7 @@
         <v>427</v>
       </c>
       <c r="E279" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -8812,7 +8817,7 @@
         <v>498</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>6</v>
@@ -8821,7 +8826,7 @@
         <v>430</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -8835,7 +8840,7 @@
         <v>339</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>6</v>
@@ -8852,7 +8857,7 @@
         <v>1004</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>6</v>
@@ -8892,7 +8897,7 @@
         <v>129</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>6</v>
@@ -8935,7 +8940,7 @@
         <v>983</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>6</v>
@@ -9285,7 +9290,7 @@
         <v>1610</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>4</v>
@@ -9302,7 +9307,7 @@
         <v>1526</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>4</v>
@@ -9319,7 +9324,7 @@
         <v>727</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>4</v>
@@ -9336,7 +9341,7 @@
         <v>1088</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>4</v>
@@ -9353,7 +9358,7 @@
         <v>1406</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>4</v>
@@ -9370,7 +9375,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>4</v>
@@ -10166,7 +10171,7 @@
         <v>562</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C353" s="17" t="s">
         <v>6</v>
@@ -10183,7 +10188,7 @@
         <v>792</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C354" s="8" t="s">
         <v>6</v>
@@ -10200,7 +10205,7 @@
         <v>418</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C355" s="8" t="s">
         <v>6</v>
@@ -10217,7 +10222,7 @@
         <v>900</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C356" s="8" t="s">
         <v>6</v>
@@ -10234,7 +10239,7 @@
         <v>963</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C357" s="8" t="s">
         <v>6</v>
@@ -10251,7 +10256,7 @@
         <v>1277</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C358" s="8" t="s">
         <v>6</v>
@@ -10654,7 +10659,7 @@
       </c>
     </row>
     <row r="386" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A386" s="4">
+      <c r="A386" s="28">
         <v>282</v>
       </c>
       <c r="B386" s="5" t="s">
@@ -10665,6 +10670,12 @@
       </c>
       <c r="D386" s="11">
         <v>312</v>
+      </c>
+      <c r="E386" t="s">
+        <v>621</v>
+      </c>
+      <c r="H386" s="37">
+        <v>44835</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
@@ -10714,7 +10725,7 @@
         <v>1306</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C390" s="8"/>
       <c r="D390" s="11"/>
@@ -10727,14 +10738,14 @@
         <v>1498</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D391" s="11"/>
       <c r="E391" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H391" s="37">
         <v>44827</v>
@@ -10745,14 +10756,14 @@
         <v>1008</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D392" s="11"/>
       <c r="E392" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H392" s="37">
         <v>44827</v>
@@ -10874,7 +10885,7 @@
         <v>363</v>
       </c>
       <c r="E399" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H399" s="37">
         <v>44827</v>
@@ -11256,7 +11267,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A426" s="6">
         <v>323</v>
       </c>
@@ -12055,7 +12066,7 @@
         <v>419</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -12077,10 +12088,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" t="s">
         <v>462</v>
-      </c>
-      <c r="C6" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
